--- a/biology/Zoologie/Gobemouche_des_marais/Gobemouche_des_marais.xlsx
+++ b/biology/Zoologie/Gobemouche_des_marais/Gobemouche_des_marais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Muscicapa aquatica
 Le Gobemouche des marais (Muscicapa aquatica) est une espèce d'oiseau de la famille des Muscicapidae. Cette espèce est endémique du continent africain.
@@ -512,7 +524,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un oiseau brun sombre, avec le croupion, le ventre et la gorge blancs. Il a sur la poitrine un plastron gris clair ou marron terne qui descend plus ou moins sur le ventre selon les individus. Les pattes, les yeux et le bec sont noirs.
 </t>
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -569,7 +585,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est endémique de l'Afrique tropicale et subtropicale. Son habitat se trouve dans les zones marécageuses ou les zones humides contenant des broussailles.
 </t>
@@ -602,16 +620,90 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Statut et préservation
-Cette espèce a été classée par l'UICN dans la catégorie LC (préoccupation mineure), car elle est considérée comme fréquente sur son aire de répartition[1].
-Taxonomie
-Muscicapa aquatica a 4 sous-espèces[2]:
+          <t>Statut et préservation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été classée par l'UICN dans la catégorie LC (préoccupation mineure), car elle est considérée comme fréquente sur son aire de répartition.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Gobemouche_des_marais</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gobemouche_des_marais</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Le Gobemouche des marais et l'Homme</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Muscicapa aquatica a 4 sous-espèces:
 Muscicapa aquatica aquatica
 Muscicapa aquatica infulata
 Muscicapa aquatica lualabae
-Muscicapa aquatica grimwoodi
-Philatélie
-L'Ouganda a émis un timbre à l'effigie de cet oiseau en 1999 [3].
+Muscicapa aquatica grimwoodi</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Gobemouche_des_marais</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gobemouche_des_marais</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Le Gobemouche des marais et l'Homme</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Philatélie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Ouganda a émis un timbre à l'effigie de cet oiseau en 1999 .
 </t>
         </is>
       </c>
